--- a/exp/llama3/results_llama3_n10_seed.xlsx
+++ b/exp/llama3/results_llama3_n10_seed.xlsx
@@ -1,45 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="results_llama3_n10_seed.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="results_llama3_n10_seed.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>r</t>
+    <t xml:space="preserve">r</t>
   </si>
   <si>
-    <t>alpha</t>
+    <t xml:space="preserve">alpha</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t xml:space="preserve">bleu</t>
   </si>
   <si>
-    <t>comet</t>
+    <t xml:space="preserve">comet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,40 +79,78 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -91,94 +161,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -186,33 +252,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -225,13 +282,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -241,15 +292,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -257,7 +306,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -265,11 +313,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -278,19 +326,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.25"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -304,4087 +355,4113 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>16.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>16</v>
       </c>
-      <c r="B2" s="2">
-        <v>16.0</v>
+      <c r="B2" s="2" t="n">
+        <v>16</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="n">
         <v>65.8481776532402</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="3" t="n">
         <v>92.9626591555003</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>16.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>16</v>
       </c>
-      <c r="B3" s="2">
-        <v>32.0</v>
+      <c r="B3" s="2" t="n">
+        <v>32</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="n">
         <v>65.59</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>92.82</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>32.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>32</v>
       </c>
-      <c r="B4" s="2">
-        <v>32.0</v>
+      <c r="B4" s="2" t="n">
+        <v>32</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="n">
         <v>66.0206308925869</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>93.0978106116426</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>32.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>32</v>
       </c>
-      <c r="B5" s="2">
-        <v>64.0</v>
+      <c r="B5" s="2" t="n">
+        <v>64</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="n">
         <v>66.13</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>93.37</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>64.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>64</v>
       </c>
-      <c r="B6" s="2">
-        <v>64.0</v>
+      <c r="B6" s="2" t="n">
+        <v>64</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="n">
         <v>67.3004220403365</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="n">
         <v>93.0898586326632</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>64.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>64</v>
       </c>
-      <c r="B7" s="2">
-        <v>128.0</v>
+      <c r="B7" s="2" t="n">
+        <v>128</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="3" t="n">
         <v>67.62</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="n">
         <v>93.23</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>128.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>128</v>
       </c>
-      <c r="B8" s="2">
-        <v>128.0</v>
+      <c r="B8" s="2" t="n">
+        <v>128</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="3" t="n">
         <v>70.06</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="n">
         <v>93.29</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>128.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>128</v>
       </c>
-      <c r="B9" s="2">
-        <v>256.0</v>
+      <c r="B9" s="2" t="n">
+        <v>256</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="3" t="n">
         <v>69.06</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>92.97</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>67.77</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>66.61</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>92.84</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="C50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
       <c r="C59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
       <c r="C60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="C61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
       <c r="C62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="C63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
       <c r="C64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="C65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
       <c r="C66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4"/>
       <c r="C110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4"/>
       <c r="C111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4"/>
       <c r="C112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4"/>
       <c r="C113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4"/>
       <c r="C114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4"/>
       <c r="C115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4"/>
       <c r="C116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4"/>
       <c r="C117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4"/>
       <c r="C118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4"/>
       <c r="C119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4"/>
       <c r="C120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4"/>
       <c r="C121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4"/>
       <c r="C122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4"/>
       <c r="C123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4"/>
       <c r="C155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4"/>
       <c r="C156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4"/>
       <c r="C157" s="5"/>
     </row>
-    <row r="158">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4"/>
       <c r="C158" s="5"/>
     </row>
-    <row r="159">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4"/>
       <c r="C159" s="5"/>
     </row>
-    <row r="160">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4"/>
       <c r="C160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4"/>
       <c r="C161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4"/>
       <c r="C162" s="5"/>
     </row>
-    <row r="163">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4"/>
       <c r="C163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4"/>
       <c r="C164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4"/>
       <c r="C165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4"/>
       <c r="C166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4"/>
       <c r="C167" s="5"/>
     </row>
-    <row r="168">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4"/>
       <c r="C168" s="5"/>
     </row>
-    <row r="169">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4"/>
       <c r="C169" s="5"/>
     </row>
-    <row r="170">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4"/>
       <c r="C170" s="5"/>
     </row>
-    <row r="171">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4"/>
       <c r="C171" s="5"/>
     </row>
-    <row r="172">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4"/>
       <c r="C172" s="5"/>
     </row>
-    <row r="173">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4"/>
       <c r="C173" s="5"/>
     </row>
-    <row r="174">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4"/>
       <c r="C174" s="5"/>
     </row>
-    <row r="175">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4"/>
       <c r="C175" s="5"/>
     </row>
-    <row r="176">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4"/>
       <c r="C177" s="5"/>
     </row>
-    <row r="178">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4"/>
       <c r="C178" s="5"/>
     </row>
-    <row r="179">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4"/>
       <c r="C179" s="5"/>
     </row>
-    <row r="180">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4"/>
       <c r="C180" s="5"/>
     </row>
-    <row r="181">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4"/>
       <c r="C181" s="5"/>
     </row>
-    <row r="182">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4"/>
       <c r="C182" s="5"/>
     </row>
-    <row r="183">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4"/>
       <c r="C183" s="5"/>
     </row>
-    <row r="184">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4"/>
       <c r="C184" s="5"/>
     </row>
-    <row r="185">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4"/>
       <c r="C185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4"/>
       <c r="C186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4"/>
       <c r="C187" s="5"/>
     </row>
-    <row r="188">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4"/>
       <c r="C188" s="5"/>
     </row>
-    <row r="189">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4"/>
       <c r="C189" s="5"/>
     </row>
-    <row r="190">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4"/>
       <c r="C190" s="5"/>
     </row>
-    <row r="191">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4"/>
       <c r="C191" s="5"/>
     </row>
-    <row r="192">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4"/>
       <c r="C192" s="5"/>
     </row>
-    <row r="193">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4"/>
       <c r="C193" s="5"/>
     </row>
-    <row r="194">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4"/>
       <c r="C194" s="5"/>
     </row>
-    <row r="195">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4"/>
       <c r="C195" s="5"/>
     </row>
-    <row r="196">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4"/>
       <c r="C196" s="5"/>
     </row>
-    <row r="197">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4"/>
       <c r="C197" s="5"/>
     </row>
-    <row r="198">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="4"/>
       <c r="C198" s="5"/>
     </row>
-    <row r="199">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4"/>
       <c r="C199" s="5"/>
     </row>
-    <row r="200">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4"/>
       <c r="C200" s="5"/>
     </row>
-    <row r="201">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4"/>
       <c r="C201" s="5"/>
     </row>
-    <row r="202">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4"/>
       <c r="C202" s="5"/>
     </row>
-    <row r="203">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4"/>
       <c r="C203" s="5"/>
     </row>
-    <row r="204">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="4"/>
       <c r="C204" s="5"/>
     </row>
-    <row r="205">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="4"/>
       <c r="C205" s="5"/>
     </row>
-    <row r="206">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="4"/>
       <c r="C206" s="5"/>
     </row>
-    <row r="207">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="4"/>
       <c r="C207" s="5"/>
     </row>
-    <row r="208">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4"/>
       <c r="C208" s="5"/>
     </row>
-    <row r="209">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4"/>
       <c r="C209" s="5"/>
     </row>
-    <row r="210">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4"/>
       <c r="C210" s="5"/>
     </row>
-    <row r="211">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4"/>
       <c r="C211" s="5"/>
     </row>
-    <row r="212">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4"/>
       <c r="C214" s="5"/>
     </row>
-    <row r="215">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4"/>
       <c r="C215" s="5"/>
     </row>
-    <row r="216">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4"/>
       <c r="C216" s="5"/>
     </row>
-    <row r="217">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4"/>
       <c r="C217" s="5"/>
     </row>
-    <row r="218">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4"/>
       <c r="C218" s="5"/>
     </row>
-    <row r="219">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4"/>
       <c r="C219" s="5"/>
     </row>
-    <row r="220">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="4"/>
       <c r="C220" s="5"/>
     </row>
-    <row r="221">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="4"/>
       <c r="C221" s="5"/>
     </row>
-    <row r="222">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="4"/>
       <c r="C222" s="5"/>
     </row>
-    <row r="223">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4"/>
       <c r="C223" s="5"/>
     </row>
-    <row r="224">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4"/>
       <c r="C224" s="5"/>
     </row>
-    <row r="225">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4"/>
       <c r="C225" s="5"/>
     </row>
-    <row r="226">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="4"/>
       <c r="C226" s="5"/>
     </row>
-    <row r="227">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="4"/>
       <c r="C227" s="5"/>
     </row>
-    <row r="228">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4"/>
       <c r="C228" s="5"/>
     </row>
-    <row r="229">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4"/>
       <c r="C229" s="5"/>
     </row>
-    <row r="230">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4"/>
       <c r="C230" s="5"/>
     </row>
-    <row r="231">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4"/>
       <c r="C231" s="5"/>
     </row>
-    <row r="232">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4"/>
       <c r="C232" s="5"/>
     </row>
-    <row r="233">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="4"/>
       <c r="C233" s="5"/>
     </row>
-    <row r="234">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="4"/>
       <c r="C234" s="5"/>
     </row>
-    <row r="235">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="4"/>
       <c r="C235" s="5"/>
     </row>
-    <row r="236">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4"/>
       <c r="C238" s="5"/>
     </row>
-    <row r="239">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4"/>
       <c r="C239" s="5"/>
     </row>
-    <row r="240">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4"/>
       <c r="C240" s="5"/>
     </row>
-    <row r="241">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4"/>
       <c r="C241" s="5"/>
     </row>
-    <row r="242">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4"/>
       <c r="C242" s="5"/>
     </row>
-    <row r="243">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4"/>
       <c r="C243" s="5"/>
     </row>
-    <row r="244">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="4"/>
       <c r="C244" s="5"/>
     </row>
-    <row r="245">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="4"/>
       <c r="C245" s="5"/>
     </row>
-    <row r="246">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="4"/>
       <c r="C246" s="5"/>
     </row>
-    <row r="247">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4"/>
       <c r="C247" s="5"/>
     </row>
-    <row r="248">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4"/>
       <c r="C248" s="5"/>
     </row>
-    <row r="249">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4"/>
       <c r="C249" s="5"/>
     </row>
-    <row r="250">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4"/>
       <c r="C250" s="5"/>
     </row>
-    <row r="251">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="4"/>
       <c r="C251" s="5"/>
     </row>
-    <row r="252">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="4"/>
       <c r="C252" s="5"/>
     </row>
-    <row r="253">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="4"/>
       <c r="C253" s="5"/>
     </row>
-    <row r="254">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4"/>
       <c r="C254" s="5"/>
     </row>
-    <row r="255">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4"/>
       <c r="C255" s="5"/>
     </row>
-    <row r="256">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4"/>
       <c r="C256" s="5"/>
     </row>
-    <row r="257">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4"/>
       <c r="C257" s="5"/>
     </row>
-    <row r="258">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4"/>
       <c r="C258" s="5"/>
     </row>
-    <row r="259">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4"/>
       <c r="C259" s="5"/>
     </row>
-    <row r="260">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4"/>
       <c r="C260" s="5"/>
     </row>
-    <row r="261">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4"/>
       <c r="C261" s="5"/>
     </row>
-    <row r="262">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4"/>
       <c r="C262" s="5"/>
     </row>
-    <row r="263">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4"/>
       <c r="C263" s="5"/>
     </row>
-    <row r="264">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4"/>
       <c r="C264" s="5"/>
     </row>
-    <row r="265">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4"/>
       <c r="C265" s="5"/>
     </row>
-    <row r="266">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4"/>
       <c r="C266" s="5"/>
     </row>
-    <row r="267">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4"/>
       <c r="C267" s="5"/>
     </row>
-    <row r="268">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4"/>
       <c r="C268" s="5"/>
     </row>
-    <row r="269">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4"/>
       <c r="C269" s="5"/>
     </row>
-    <row r="270">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4"/>
       <c r="C270" s="5"/>
     </row>
-    <row r="271">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="4"/>
       <c r="C271" s="5"/>
     </row>
-    <row r="272">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="4"/>
       <c r="C272" s="5"/>
     </row>
-    <row r="273">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="4"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="4"/>
       <c r="C275" s="5"/>
     </row>
-    <row r="276">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="4"/>
       <c r="C276" s="5"/>
     </row>
-    <row r="277">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4"/>
       <c r="C277" s="5"/>
     </row>
-    <row r="278">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="4"/>
       <c r="C278" s="5"/>
     </row>
-    <row r="279">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4"/>
       <c r="C279" s="5"/>
     </row>
-    <row r="280">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4"/>
       <c r="C280" s="5"/>
     </row>
-    <row r="281">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="4"/>
       <c r="C281" s="5"/>
     </row>
-    <row r="282">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4"/>
       <c r="C282" s="5"/>
     </row>
-    <row r="283">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4"/>
       <c r="C283" s="5"/>
     </row>
-    <row r="284">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4"/>
       <c r="C284" s="5"/>
     </row>
-    <row r="285">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4"/>
       <c r="C285" s="5"/>
     </row>
-    <row r="286">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4"/>
       <c r="C286" s="5"/>
     </row>
-    <row r="287">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="4"/>
       <c r="C287" s="5"/>
     </row>
-    <row r="288">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="4"/>
       <c r="C288" s="5"/>
     </row>
-    <row r="289">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="4"/>
       <c r="C289" s="5"/>
     </row>
-    <row r="290">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="4"/>
       <c r="C290" s="5"/>
     </row>
-    <row r="291">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="4"/>
       <c r="C291" s="5"/>
     </row>
-    <row r="292">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="4"/>
       <c r="C292" s="5"/>
     </row>
-    <row r="293">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="4"/>
       <c r="C293" s="5"/>
     </row>
-    <row r="294">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="4"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="4"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="4"/>
       <c r="C296" s="5"/>
     </row>
-    <row r="297">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="4"/>
       <c r="C297" s="5"/>
     </row>
-    <row r="298">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4"/>
       <c r="C298" s="5"/>
     </row>
-    <row r="299">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4"/>
       <c r="C299" s="5"/>
     </row>
-    <row r="300">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4"/>
       <c r="C300" s="5"/>
     </row>
-    <row r="301">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="4"/>
       <c r="C301" s="5"/>
     </row>
-    <row r="302">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4"/>
       <c r="C302" s="5"/>
     </row>
-    <row r="303">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4"/>
       <c r="C303" s="5"/>
     </row>
-    <row r="304">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4"/>
       <c r="C304" s="5"/>
     </row>
-    <row r="305">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="4"/>
       <c r="C305" s="5"/>
     </row>
-    <row r="306">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="4"/>
       <c r="C306" s="5"/>
     </row>
-    <row r="307">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="4"/>
       <c r="C307" s="5"/>
     </row>
-    <row r="308">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="4"/>
       <c r="C308" s="5"/>
     </row>
-    <row r="309">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="4"/>
       <c r="C309" s="5"/>
     </row>
-    <row r="310">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="4"/>
       <c r="C310" s="5"/>
     </row>
-    <row r="311">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="4"/>
       <c r="C311" s="5"/>
     </row>
-    <row r="312">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="4"/>
       <c r="C312" s="5"/>
     </row>
-    <row r="313">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="4"/>
       <c r="C313" s="5"/>
     </row>
-    <row r="314">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="4"/>
       <c r="C314" s="5"/>
     </row>
-    <row r="315">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="4"/>
       <c r="C315" s="5"/>
     </row>
-    <row r="316">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="4"/>
       <c r="C316" s="5"/>
     </row>
-    <row r="317">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="4"/>
       <c r="C317" s="5"/>
     </row>
-    <row r="318">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="4"/>
       <c r="C318" s="5"/>
     </row>
-    <row r="319">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="4"/>
       <c r="C319" s="5"/>
     </row>
-    <row r="320">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="4"/>
       <c r="C320" s="5"/>
     </row>
-    <row r="321">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="4"/>
       <c r="C321" s="5"/>
     </row>
-    <row r="322">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="4"/>
       <c r="C322" s="5"/>
     </row>
-    <row r="323">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="4"/>
       <c r="C323" s="5"/>
     </row>
-    <row r="324">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4"/>
       <c r="C324" s="5"/>
     </row>
-    <row r="325">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="4"/>
       <c r="C325" s="5"/>
     </row>
-    <row r="326">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4"/>
       <c r="C326" s="5"/>
     </row>
-    <row r="327">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="4"/>
       <c r="C327" s="5"/>
     </row>
-    <row r="328">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="4"/>
       <c r="C328" s="5"/>
     </row>
-    <row r="329">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4"/>
       <c r="C329" s="5"/>
     </row>
-    <row r="330">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4"/>
       <c r="C330" s="5"/>
     </row>
-    <row r="331">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="4"/>
       <c r="C331" s="5"/>
     </row>
-    <row r="332">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="4"/>
       <c r="C332" s="5"/>
     </row>
-    <row r="333">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4"/>
       <c r="C333" s="5"/>
     </row>
-    <row r="334">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4"/>
       <c r="C336" s="5"/>
     </row>
-    <row r="337">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4"/>
       <c r="C337" s="5"/>
     </row>
-    <row r="338">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4"/>
       <c r="C338" s="5"/>
     </row>
-    <row r="339">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4"/>
       <c r="C339" s="5"/>
     </row>
-    <row r="340">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="4"/>
       <c r="C340" s="5"/>
     </row>
-    <row r="341">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="4"/>
       <c r="C341" s="5"/>
     </row>
-    <row r="342">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4"/>
       <c r="C342" s="5"/>
     </row>
-    <row r="343">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4"/>
       <c r="C343" s="5"/>
     </row>
-    <row r="344">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4"/>
       <c r="C344" s="5"/>
     </row>
-    <row r="345">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4"/>
       <c r="C345" s="5"/>
     </row>
-    <row r="346">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4"/>
       <c r="C346" s="5"/>
     </row>
-    <row r="347">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4"/>
       <c r="C347" s="5"/>
     </row>
-    <row r="348">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4"/>
       <c r="C348" s="5"/>
     </row>
-    <row r="349">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4"/>
       <c r="C349" s="5"/>
     </row>
-    <row r="350">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4"/>
       <c r="C350" s="5"/>
     </row>
-    <row r="351">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="4"/>
       <c r="C351" s="5"/>
     </row>
-    <row r="352">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="4"/>
       <c r="C352" s="5"/>
     </row>
-    <row r="353">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4"/>
       <c r="C353" s="5"/>
     </row>
-    <row r="354">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="4"/>
       <c r="C356" s="5"/>
     </row>
-    <row r="357">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4"/>
       <c r="C357" s="5"/>
     </row>
-    <row r="358">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4"/>
       <c r="C358" s="5"/>
     </row>
-    <row r="359">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="4"/>
       <c r="C359" s="5"/>
     </row>
-    <row r="360">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4"/>
       <c r="C360" s="5"/>
     </row>
-    <row r="361">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4"/>
       <c r="C361" s="5"/>
     </row>
-    <row r="362">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4"/>
       <c r="C362" s="5"/>
     </row>
-    <row r="363">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4"/>
       <c r="C363" s="5"/>
     </row>
-    <row r="364">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4"/>
       <c r="C364" s="5"/>
     </row>
-    <row r="365">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4"/>
       <c r="C365" s="5"/>
     </row>
-    <row r="366">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4"/>
       <c r="C366" s="5"/>
     </row>
-    <row r="367">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4"/>
       <c r="C367" s="5"/>
     </row>
-    <row r="368">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4"/>
       <c r="C368" s="5"/>
     </row>
-    <row r="369">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4"/>
       <c r="C369" s="5"/>
     </row>
-    <row r="370">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4"/>
       <c r="C370" s="5"/>
     </row>
-    <row r="371">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4"/>
       <c r="C371" s="5"/>
     </row>
-    <row r="372">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4"/>
       <c r="C372" s="5"/>
     </row>
-    <row r="373">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4"/>
       <c r="C373" s="5"/>
     </row>
-    <row r="374">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4"/>
       <c r="C374" s="5"/>
     </row>
-    <row r="375">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4"/>
       <c r="C375" s="5"/>
     </row>
-    <row r="376">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4"/>
       <c r="C376" s="5"/>
     </row>
-    <row r="377">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4"/>
       <c r="C377" s="5"/>
     </row>
-    <row r="378">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4"/>
       <c r="C378" s="5"/>
     </row>
-    <row r="379">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4"/>
       <c r="C379" s="5"/>
     </row>
-    <row r="380">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4"/>
       <c r="C380" s="5"/>
     </row>
-    <row r="381">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4"/>
       <c r="C381" s="5"/>
     </row>
-    <row r="382">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4"/>
       <c r="C382" s="5"/>
     </row>
-    <row r="383">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4"/>
       <c r="C383" s="5"/>
     </row>
-    <row r="384">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4"/>
       <c r="C384" s="5"/>
     </row>
-    <row r="385">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4"/>
       <c r="C385" s="5"/>
     </row>
-    <row r="386">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="4"/>
       <c r="C386" s="5"/>
     </row>
-    <row r="387">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="4"/>
       <c r="C387" s="5"/>
     </row>
-    <row r="388">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="4"/>
       <c r="C388" s="5"/>
     </row>
-    <row r="389">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="4"/>
       <c r="C389" s="5"/>
     </row>
-    <row r="390">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="4"/>
       <c r="C390" s="5"/>
     </row>
-    <row r="391">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="4"/>
       <c r="C391" s="5"/>
     </row>
-    <row r="392">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="4"/>
       <c r="C392" s="5"/>
     </row>
-    <row r="393">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="4"/>
       <c r="C393" s="5"/>
     </row>
-    <row r="394">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="4"/>
       <c r="C394" s="5"/>
     </row>
-    <row r="395">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="4"/>
       <c r="C395" s="5"/>
     </row>
-    <row r="396">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="4"/>
       <c r="C396" s="5"/>
     </row>
-    <row r="397">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="4"/>
       <c r="C397" s="5"/>
     </row>
-    <row r="398">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="4"/>
       <c r="C398" s="5"/>
     </row>
-    <row r="399">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="4"/>
       <c r="C399" s="5"/>
     </row>
-    <row r="400">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="4"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="4"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="4"/>
       <c r="C402" s="5"/>
     </row>
-    <row r="403">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="4"/>
       <c r="C403" s="5"/>
     </row>
-    <row r="404">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="4"/>
       <c r="C404" s="5"/>
     </row>
-    <row r="405">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="4"/>
       <c r="C405" s="5"/>
     </row>
-    <row r="406">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="4"/>
       <c r="C406" s="5"/>
     </row>
-    <row r="407">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="4"/>
       <c r="C407" s="5"/>
     </row>
-    <row r="408">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="4"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="4"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="4"/>
       <c r="C410" s="5"/>
     </row>
-    <row r="411">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="4"/>
       <c r="C411" s="5"/>
     </row>
-    <row r="412">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="4"/>
       <c r="C412" s="5"/>
     </row>
-    <row r="413">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="4"/>
       <c r="C413" s="5"/>
     </row>
-    <row r="414">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="4"/>
       <c r="C414" s="5"/>
     </row>
-    <row r="415">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="4"/>
       <c r="C415" s="5"/>
     </row>
-    <row r="416">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="4"/>
       <c r="C416" s="5"/>
     </row>
-    <row r="417">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="4"/>
       <c r="C417" s="5"/>
     </row>
-    <row r="418">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="4"/>
       <c r="C418" s="5"/>
     </row>
-    <row r="419">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="4"/>
       <c r="C419" s="5"/>
     </row>
-    <row r="420">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="4"/>
       <c r="C420" s="5"/>
     </row>
-    <row r="421">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="4"/>
       <c r="C421" s="5"/>
     </row>
-    <row r="422">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="4"/>
       <c r="C422" s="5"/>
     </row>
-    <row r="423">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="4"/>
       <c r="C423" s="5"/>
     </row>
-    <row r="424">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="4"/>
       <c r="C424" s="5"/>
     </row>
-    <row r="425">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="4"/>
       <c r="C425" s="5"/>
     </row>
-    <row r="426">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="4"/>
       <c r="C426" s="5"/>
     </row>
-    <row r="427">
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="4"/>
       <c r="C427" s="5"/>
     </row>
-    <row r="428">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="4"/>
       <c r="C428" s="5"/>
     </row>
-    <row r="429">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="4"/>
       <c r="C429" s="5"/>
     </row>
-    <row r="430">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="4"/>
       <c r="C430" s="5"/>
     </row>
-    <row r="431">
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="4"/>
       <c r="C431" s="5"/>
     </row>
-    <row r="432">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="4"/>
       <c r="C432" s="5"/>
     </row>
-    <row r="433">
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="4"/>
       <c r="C433" s="5"/>
     </row>
-    <row r="434">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="4"/>
       <c r="C434" s="5"/>
     </row>
-    <row r="435">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="4"/>
       <c r="C435" s="5"/>
     </row>
-    <row r="436">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="4"/>
       <c r="C436" s="5"/>
     </row>
-    <row r="437">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="4"/>
       <c r="C437" s="5"/>
     </row>
-    <row r="438">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="4"/>
       <c r="C438" s="5"/>
     </row>
-    <row r="439">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="4"/>
       <c r="C439" s="5"/>
     </row>
-    <row r="440">
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="4"/>
       <c r="C440" s="5"/>
     </row>
-    <row r="441">
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="4"/>
       <c r="C441" s="5"/>
     </row>
-    <row r="442">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="4"/>
       <c r="C442" s="5"/>
     </row>
-    <row r="443">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="4"/>
       <c r="C443" s="5"/>
     </row>
-    <row r="444">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="4"/>
       <c r="C444" s="5"/>
     </row>
-    <row r="445">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="4"/>
       <c r="C445" s="5"/>
     </row>
-    <row r="446">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="4"/>
       <c r="C446" s="5"/>
     </row>
-    <row r="447">
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="4"/>
       <c r="C447" s="5"/>
     </row>
-    <row r="448">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="4"/>
       <c r="C448" s="5"/>
     </row>
-    <row r="449">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="4"/>
       <c r="C449" s="5"/>
     </row>
-    <row r="450">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="4"/>
       <c r="C450" s="5"/>
     </row>
-    <row r="451">
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="4"/>
       <c r="C451" s="5"/>
     </row>
-    <row r="452">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="4"/>
       <c r="C452" s="5"/>
     </row>
-    <row r="453">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="4"/>
       <c r="C453" s="5"/>
     </row>
-    <row r="454">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="4"/>
       <c r="C454" s="5"/>
     </row>
-    <row r="455">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="4"/>
       <c r="C455" s="5"/>
     </row>
-    <row r="456">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="4"/>
       <c r="C456" s="5"/>
     </row>
-    <row r="457">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="4"/>
       <c r="C457" s="5"/>
     </row>
-    <row r="458">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="4"/>
       <c r="C458" s="5"/>
     </row>
-    <row r="459">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="4"/>
       <c r="C459" s="5"/>
     </row>
-    <row r="460">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="4"/>
       <c r="C460" s="5"/>
     </row>
-    <row r="461">
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="4"/>
       <c r="C461" s="5"/>
     </row>
-    <row r="462">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="4"/>
       <c r="C462" s="5"/>
     </row>
-    <row r="463">
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="4"/>
       <c r="C463" s="5"/>
     </row>
-    <row r="464">
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="4"/>
       <c r="C464" s="5"/>
     </row>
-    <row r="465">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="4"/>
       <c r="C465" s="5"/>
     </row>
-    <row r="466">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="4"/>
       <c r="C466" s="5"/>
     </row>
-    <row r="467">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="4"/>
       <c r="C467" s="5"/>
     </row>
-    <row r="468">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="4"/>
       <c r="C468" s="5"/>
     </row>
-    <row r="469">
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="4"/>
       <c r="C469" s="5"/>
     </row>
-    <row r="470">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="4"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="4"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="4"/>
       <c r="C472" s="5"/>
     </row>
-    <row r="473">
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="4"/>
       <c r="C473" s="5"/>
     </row>
-    <row r="474">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="4"/>
       <c r="C474" s="5"/>
     </row>
-    <row r="475">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="4"/>
       <c r="C475" s="5"/>
     </row>
-    <row r="476">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="4"/>
       <c r="C476" s="5"/>
     </row>
-    <row r="477">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="4"/>
       <c r="C477" s="5"/>
     </row>
-    <row r="478">
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="4"/>
       <c r="C478" s="5"/>
     </row>
-    <row r="479">
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="4"/>
       <c r="C479" s="5"/>
     </row>
-    <row r="480">
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="4"/>
       <c r="C480" s="5"/>
     </row>
-    <row r="481">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="4"/>
       <c r="C481" s="5"/>
     </row>
-    <row r="482">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="4"/>
       <c r="C482" s="5"/>
     </row>
-    <row r="483">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="4"/>
       <c r="C483" s="5"/>
     </row>
-    <row r="484">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="4"/>
       <c r="C484" s="5"/>
     </row>
-    <row r="485">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="4"/>
       <c r="C485" s="5"/>
     </row>
-    <row r="486">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="4"/>
       <c r="C486" s="5"/>
     </row>
-    <row r="487">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="4"/>
       <c r="C487" s="5"/>
     </row>
-    <row r="488">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="4"/>
       <c r="C488" s="5"/>
     </row>
-    <row r="489">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="4"/>
       <c r="C489" s="5"/>
     </row>
-    <row r="490">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="4"/>
       <c r="C490" s="5"/>
     </row>
-    <row r="491">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="4"/>
       <c r="C491" s="5"/>
     </row>
-    <row r="492">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="4"/>
       <c r="C492" s="5"/>
     </row>
-    <row r="493">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="4"/>
       <c r="C493" s="5"/>
     </row>
-    <row r="494">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="4"/>
       <c r="C494" s="5"/>
     </row>
-    <row r="495">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="4"/>
       <c r="C495" s="5"/>
     </row>
-    <row r="496">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="4"/>
       <c r="C496" s="5"/>
     </row>
-    <row r="497">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="4"/>
       <c r="C497" s="5"/>
     </row>
-    <row r="498">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="4"/>
       <c r="C498" s="5"/>
     </row>
-    <row r="499">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="4"/>
       <c r="C499" s="5"/>
     </row>
-    <row r="500">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="4"/>
       <c r="C500" s="5"/>
     </row>
-    <row r="501">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="4"/>
       <c r="C501" s="5"/>
     </row>
-    <row r="502">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="4"/>
       <c r="C502" s="5"/>
     </row>
-    <row r="503">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="4"/>
       <c r="C503" s="5"/>
     </row>
-    <row r="504">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="4"/>
       <c r="C504" s="5"/>
     </row>
-    <row r="505">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="4"/>
       <c r="C505" s="5"/>
     </row>
-    <row r="506">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="4"/>
       <c r="C506" s="5"/>
     </row>
-    <row r="507">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="4"/>
       <c r="C507" s="5"/>
     </row>
-    <row r="508">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="4"/>
       <c r="C508" s="5"/>
     </row>
-    <row r="509">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="4"/>
       <c r="C509" s="5"/>
     </row>
-    <row r="510">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="4"/>
       <c r="C510" s="5"/>
     </row>
-    <row r="511">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="4"/>
       <c r="C511" s="5"/>
     </row>
-    <row r="512">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="4"/>
       <c r="C512" s="5"/>
     </row>
-    <row r="513">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="4"/>
       <c r="C513" s="5"/>
     </row>
-    <row r="514">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="4"/>
       <c r="C514" s="5"/>
     </row>
-    <row r="515">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="4"/>
       <c r="C515" s="5"/>
     </row>
-    <row r="516">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="4"/>
       <c r="C516" s="5"/>
     </row>
-    <row r="517">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="4"/>
       <c r="C517" s="5"/>
     </row>
-    <row r="518">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="4"/>
       <c r="C518" s="5"/>
     </row>
-    <row r="519">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="4"/>
       <c r="C519" s="5"/>
     </row>
-    <row r="520">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="4"/>
       <c r="C520" s="5"/>
     </row>
-    <row r="521">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="4"/>
       <c r="C521" s="5"/>
     </row>
-    <row r="522">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="4"/>
       <c r="C522" s="5"/>
     </row>
-    <row r="523">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="4"/>
       <c r="C523" s="5"/>
     </row>
-    <row r="524">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="4"/>
       <c r="C524" s="5"/>
     </row>
-    <row r="525">
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="4"/>
       <c r="C525" s="5"/>
     </row>
-    <row r="526">
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="4"/>
       <c r="C526" s="5"/>
     </row>
-    <row r="527">
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="4"/>
       <c r="C527" s="5"/>
     </row>
-    <row r="528">
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="4"/>
       <c r="C528" s="5"/>
     </row>
-    <row r="529">
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="4"/>
       <c r="C529" s="5"/>
     </row>
-    <row r="530">
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="4"/>
       <c r="C530" s="5"/>
     </row>
-    <row r="531">
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="4"/>
       <c r="C531" s="5"/>
     </row>
-    <row r="532">
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="4"/>
       <c r="C532" s="5"/>
     </row>
-    <row r="533">
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="4"/>
       <c r="C533" s="5"/>
     </row>
-    <row r="534">
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="4"/>
       <c r="C534" s="5"/>
     </row>
-    <row r="535">
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="4"/>
       <c r="C535" s="5"/>
     </row>
-    <row r="536">
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="4"/>
       <c r="C536" s="5"/>
     </row>
-    <row r="537">
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="4"/>
       <c r="C537" s="5"/>
     </row>
-    <row r="538">
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="4"/>
       <c r="C538" s="5"/>
     </row>
-    <row r="539">
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="4"/>
       <c r="C539" s="5"/>
     </row>
-    <row r="540">
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="4"/>
       <c r="C540" s="5"/>
     </row>
-    <row r="541">
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="4"/>
       <c r="C541" s="5"/>
     </row>
-    <row r="542">
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="4"/>
       <c r="C542" s="5"/>
     </row>
-    <row r="543">
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="4"/>
       <c r="C543" s="5"/>
     </row>
-    <row r="544">
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="4"/>
       <c r="C544" s="5"/>
     </row>
-    <row r="545">
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="4"/>
       <c r="C545" s="5"/>
     </row>
-    <row r="546">
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="4"/>
       <c r="C546" s="5"/>
     </row>
-    <row r="547">
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="4"/>
       <c r="C547" s="5"/>
     </row>
-    <row r="548">
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="4"/>
       <c r="C548" s="5"/>
     </row>
-    <row r="549">
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="4"/>
       <c r="C549" s="5"/>
     </row>
-    <row r="550">
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="4"/>
       <c r="C550" s="5"/>
     </row>
-    <row r="551">
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="4"/>
       <c r="C551" s="5"/>
     </row>
-    <row r="552">
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="4"/>
       <c r="C552" s="5"/>
     </row>
-    <row r="553">
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="4"/>
       <c r="C553" s="5"/>
     </row>
-    <row r="554">
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="4"/>
       <c r="C554" s="5"/>
     </row>
-    <row r="555">
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="4"/>
       <c r="C555" s="5"/>
     </row>
-    <row r="556">
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="4"/>
       <c r="C556" s="5"/>
     </row>
-    <row r="557">
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="4"/>
       <c r="C557" s="5"/>
     </row>
-    <row r="558">
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="4"/>
       <c r="C558" s="5"/>
     </row>
-    <row r="559">
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="4"/>
       <c r="C559" s="5"/>
     </row>
-    <row r="560">
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="4"/>
       <c r="C560" s="5"/>
     </row>
-    <row r="561">
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="4"/>
       <c r="C561" s="5"/>
     </row>
-    <row r="562">
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="4"/>
       <c r="C562" s="5"/>
     </row>
-    <row r="563">
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="4"/>
       <c r="C563" s="5"/>
     </row>
-    <row r="564">
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="4"/>
       <c r="C564" s="5"/>
     </row>
-    <row r="565">
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="4"/>
       <c r="C565" s="5"/>
     </row>
-    <row r="566">
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="4"/>
       <c r="C566" s="5"/>
     </row>
-    <row r="567">
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="4"/>
       <c r="C567" s="5"/>
     </row>
-    <row r="568">
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="4"/>
       <c r="C568" s="5"/>
     </row>
-    <row r="569">
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="4"/>
       <c r="C569" s="5"/>
     </row>
-    <row r="570">
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="4"/>
       <c r="C570" s="5"/>
     </row>
-    <row r="571">
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="4"/>
       <c r="C571" s="5"/>
     </row>
-    <row r="572">
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="4"/>
       <c r="C572" s="5"/>
     </row>
-    <row r="573">
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="4"/>
       <c r="C573" s="5"/>
     </row>
-    <row r="574">
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="4"/>
       <c r="C574" s="5"/>
     </row>
-    <row r="575">
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="4"/>
       <c r="C575" s="5"/>
     </row>
-    <row r="576">
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="4"/>
       <c r="C576" s="5"/>
     </row>
-    <row r="577">
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="4"/>
       <c r="C577" s="5"/>
     </row>
-    <row r="578">
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="4"/>
       <c r="C578" s="5"/>
     </row>
-    <row r="579">
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="4"/>
       <c r="C579" s="5"/>
     </row>
-    <row r="580">
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="4"/>
       <c r="C580" s="5"/>
     </row>
-    <row r="581">
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="4"/>
       <c r="C581" s="5"/>
     </row>
-    <row r="582">
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="4"/>
       <c r="C582" s="5"/>
     </row>
-    <row r="583">
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="4"/>
       <c r="C583" s="5"/>
     </row>
-    <row r="584">
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="4"/>
       <c r="C584" s="5"/>
     </row>
-    <row r="585">
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="4"/>
       <c r="C585" s="5"/>
     </row>
-    <row r="586">
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="4"/>
       <c r="C586" s="5"/>
     </row>
-    <row r="587">
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="4"/>
       <c r="C587" s="5"/>
     </row>
-    <row r="588">
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="4"/>
       <c r="C588" s="5"/>
     </row>
-    <row r="589">
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="4"/>
       <c r="C589" s="5"/>
     </row>
-    <row r="590">
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="4"/>
       <c r="C590" s="5"/>
     </row>
-    <row r="591">
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="4"/>
       <c r="C591" s="5"/>
     </row>
-    <row r="592">
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="4"/>
       <c r="C592" s="5"/>
     </row>
-    <row r="593">
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="4"/>
       <c r="C593" s="5"/>
     </row>
-    <row r="594">
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="4"/>
       <c r="C594" s="5"/>
     </row>
-    <row r="595">
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="4"/>
       <c r="C595" s="5"/>
     </row>
-    <row r="596">
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="4"/>
       <c r="C596" s="5"/>
     </row>
-    <row r="597">
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="4"/>
       <c r="C597" s="5"/>
     </row>
-    <row r="598">
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="4"/>
       <c r="C598" s="5"/>
     </row>
-    <row r="599">
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="4"/>
       <c r="C599" s="5"/>
     </row>
-    <row r="600">
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="4"/>
       <c r="C600" s="5"/>
     </row>
-    <row r="601">
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="4"/>
       <c r="C601" s="5"/>
     </row>
-    <row r="602">
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="4"/>
       <c r="C602" s="5"/>
     </row>
-    <row r="603">
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="4"/>
       <c r="C603" s="5"/>
     </row>
-    <row r="604">
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="4"/>
       <c r="C604" s="5"/>
     </row>
-    <row r="605">
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="4"/>
       <c r="C605" s="5"/>
     </row>
-    <row r="606">
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="4"/>
       <c r="C606" s="5"/>
     </row>
-    <row r="607">
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="4"/>
       <c r="C607" s="5"/>
     </row>
-    <row r="608">
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="4"/>
       <c r="C608" s="5"/>
     </row>
-    <row r="609">
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="4"/>
       <c r="C609" s="5"/>
     </row>
-    <row r="610">
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="4"/>
       <c r="C610" s="5"/>
     </row>
-    <row r="611">
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="4"/>
       <c r="C611" s="5"/>
     </row>
-    <row r="612">
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="4"/>
       <c r="C612" s="5"/>
     </row>
-    <row r="613">
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="4"/>
       <c r="C613" s="5"/>
     </row>
-    <row r="614">
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="4"/>
       <c r="C614" s="5"/>
     </row>
-    <row r="615">
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="4"/>
       <c r="C615" s="5"/>
     </row>
-    <row r="616">
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="4"/>
       <c r="C616" s="5"/>
     </row>
-    <row r="617">
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="4"/>
       <c r="C617" s="5"/>
     </row>
-    <row r="618">
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="4"/>
       <c r="C618" s="5"/>
     </row>
-    <row r="619">
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="4"/>
       <c r="C619" s="5"/>
     </row>
-    <row r="620">
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="4"/>
       <c r="C620" s="5"/>
     </row>
-    <row r="621">
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="4"/>
       <c r="C621" s="5"/>
     </row>
-    <row r="622">
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="4"/>
       <c r="C622" s="5"/>
     </row>
-    <row r="623">
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="4"/>
       <c r="C623" s="5"/>
     </row>
-    <row r="624">
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="4"/>
       <c r="C624" s="5"/>
     </row>
-    <row r="625">
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="4"/>
       <c r="C625" s="5"/>
     </row>
-    <row r="626">
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="4"/>
       <c r="C626" s="5"/>
     </row>
-    <row r="627">
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="4"/>
       <c r="C627" s="5"/>
     </row>
-    <row r="628">
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="4"/>
       <c r="C628" s="5"/>
     </row>
-    <row r="629">
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="4"/>
       <c r="C629" s="5"/>
     </row>
-    <row r="630">
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="4"/>
       <c r="C630" s="5"/>
     </row>
-    <row r="631">
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="4"/>
       <c r="C631" s="5"/>
     </row>
-    <row r="632">
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="4"/>
       <c r="C632" s="5"/>
     </row>
-    <row r="633">
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="4"/>
       <c r="C633" s="5"/>
     </row>
-    <row r="634">
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="4"/>
       <c r="C634" s="5"/>
     </row>
-    <row r="635">
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="4"/>
       <c r="C635" s="5"/>
     </row>
-    <row r="636">
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="4"/>
       <c r="C636" s="5"/>
     </row>
-    <row r="637">
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="4"/>
       <c r="C637" s="5"/>
     </row>
-    <row r="638">
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="4"/>
       <c r="C638" s="5"/>
     </row>
-    <row r="639">
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="4"/>
       <c r="C639" s="5"/>
     </row>
-    <row r="640">
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="4"/>
       <c r="C640" s="5"/>
     </row>
-    <row r="641">
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="4"/>
       <c r="C641" s="5"/>
     </row>
-    <row r="642">
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="4"/>
       <c r="C642" s="5"/>
     </row>
-    <row r="643">
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="4"/>
       <c r="C643" s="5"/>
     </row>
-    <row r="644">
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="4"/>
       <c r="C644" s="5"/>
     </row>
-    <row r="645">
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="4"/>
       <c r="C645" s="5"/>
     </row>
-    <row r="646">
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="4"/>
       <c r="C646" s="5"/>
     </row>
-    <row r="647">
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="4"/>
       <c r="C647" s="5"/>
     </row>
-    <row r="648">
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="4"/>
       <c r="C648" s="5"/>
     </row>
-    <row r="649">
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="4"/>
       <c r="C649" s="5"/>
     </row>
-    <row r="650">
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="4"/>
       <c r="C650" s="5"/>
     </row>
-    <row r="651">
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="4"/>
       <c r="C651" s="5"/>
     </row>
-    <row r="652">
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="4"/>
       <c r="C652" s="5"/>
     </row>
-    <row r="653">
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="4"/>
       <c r="C653" s="5"/>
     </row>
-    <row r="654">
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="4"/>
       <c r="C654" s="5"/>
     </row>
-    <row r="655">
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="4"/>
       <c r="C655" s="5"/>
     </row>
-    <row r="656">
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="4"/>
       <c r="C656" s="5"/>
     </row>
-    <row r="657">
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="4"/>
       <c r="C657" s="5"/>
     </row>
-    <row r="658">
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="4"/>
       <c r="C658" s="5"/>
     </row>
-    <row r="659">
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="4"/>
       <c r="C659" s="5"/>
     </row>
-    <row r="660">
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="4"/>
       <c r="C660" s="5"/>
     </row>
-    <row r="661">
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="4"/>
       <c r="C661" s="5"/>
     </row>
-    <row r="662">
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="4"/>
       <c r="C662" s="5"/>
     </row>
-    <row r="663">
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="4"/>
       <c r="C663" s="5"/>
     </row>
-    <row r="664">
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="4"/>
       <c r="C664" s="5"/>
     </row>
-    <row r="665">
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="4"/>
       <c r="C665" s="5"/>
     </row>
-    <row r="666">
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="4"/>
       <c r="C666" s="5"/>
     </row>
-    <row r="667">
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="4"/>
       <c r="C667" s="5"/>
     </row>
-    <row r="668">
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="4"/>
       <c r="C668" s="5"/>
     </row>
-    <row r="669">
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="4"/>
       <c r="C669" s="5"/>
     </row>
-    <row r="670">
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="4"/>
       <c r="C670" s="5"/>
     </row>
-    <row r="671">
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="4"/>
       <c r="C671" s="5"/>
     </row>
-    <row r="672">
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="4"/>
       <c r="C672" s="5"/>
     </row>
-    <row r="673">
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="4"/>
       <c r="C673" s="5"/>
     </row>
-    <row r="674">
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="4"/>
       <c r="C674" s="5"/>
     </row>
-    <row r="675">
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="4"/>
       <c r="C675" s="5"/>
     </row>
-    <row r="676">
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="4"/>
       <c r="C676" s="5"/>
     </row>
-    <row r="677">
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="4"/>
       <c r="C677" s="5"/>
     </row>
-    <row r="678">
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="4"/>
       <c r="C678" s="5"/>
     </row>
-    <row r="679">
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="4"/>
       <c r="C679" s="5"/>
     </row>
-    <row r="680">
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="4"/>
       <c r="C680" s="5"/>
     </row>
-    <row r="681">
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="4"/>
       <c r="C681" s="5"/>
     </row>
-    <row r="682">
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="4"/>
       <c r="C682" s="5"/>
     </row>
-    <row r="683">
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="4"/>
       <c r="C683" s="5"/>
     </row>
-    <row r="684">
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="4"/>
       <c r="C684" s="5"/>
     </row>
-    <row r="685">
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="4"/>
       <c r="C685" s="5"/>
     </row>
-    <row r="686">
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="4"/>
       <c r="C686" s="5"/>
     </row>
-    <row r="687">
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="4"/>
       <c r="C687" s="5"/>
     </row>
-    <row r="688">
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="4"/>
       <c r="C688" s="5"/>
     </row>
-    <row r="689">
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="4"/>
       <c r="C689" s="5"/>
     </row>
-    <row r="690">
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="4"/>
       <c r="C690" s="5"/>
     </row>
-    <row r="691">
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="4"/>
       <c r="C691" s="5"/>
     </row>
-    <row r="692">
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="4"/>
       <c r="C692" s="5"/>
     </row>
-    <row r="693">
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="4"/>
       <c r="C693" s="5"/>
     </row>
-    <row r="694">
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="4"/>
       <c r="C694" s="5"/>
     </row>
-    <row r="695">
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="4"/>
       <c r="C695" s="5"/>
     </row>
-    <row r="696">
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="4"/>
       <c r="C696" s="5"/>
     </row>
-    <row r="697">
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="4"/>
       <c r="C697" s="5"/>
     </row>
-    <row r="698">
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="4"/>
       <c r="C698" s="5"/>
     </row>
-    <row r="699">
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="4"/>
       <c r="C699" s="5"/>
     </row>
-    <row r="700">
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="4"/>
       <c r="C700" s="5"/>
     </row>
-    <row r="701">
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="4"/>
       <c r="C701" s="5"/>
     </row>
-    <row r="702">
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="4"/>
       <c r="C702" s="5"/>
     </row>
-    <row r="703">
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="4"/>
       <c r="C703" s="5"/>
     </row>
-    <row r="704">
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="4"/>
       <c r="C704" s="5"/>
     </row>
-    <row r="705">
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="4"/>
       <c r="C705" s="5"/>
     </row>
-    <row r="706">
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="4"/>
       <c r="C706" s="5"/>
     </row>
-    <row r="707">
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="4"/>
       <c r="C707" s="5"/>
     </row>
-    <row r="708">
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="4"/>
       <c r="C708" s="5"/>
     </row>
-    <row r="709">
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="4"/>
       <c r="C709" s="5"/>
     </row>
-    <row r="710">
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="4"/>
       <c r="C710" s="5"/>
     </row>
-    <row r="711">
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="4"/>
       <c r="C711" s="5"/>
     </row>
-    <row r="712">
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="4"/>
       <c r="C712" s="5"/>
     </row>
-    <row r="713">
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="4"/>
       <c r="C713" s="5"/>
     </row>
-    <row r="714">
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="4"/>
       <c r="C714" s="5"/>
     </row>
-    <row r="715">
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="4"/>
       <c r="C715" s="5"/>
     </row>
-    <row r="716">
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="4"/>
       <c r="C716" s="5"/>
     </row>
-    <row r="717">
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="4"/>
       <c r="C717" s="5"/>
     </row>
-    <row r="718">
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="4"/>
       <c r="C718" s="5"/>
     </row>
-    <row r="719">
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="4"/>
       <c r="C719" s="5"/>
     </row>
-    <row r="720">
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="4"/>
       <c r="C720" s="5"/>
     </row>
-    <row r="721">
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="4"/>
       <c r="C721" s="5"/>
     </row>
-    <row r="722">
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="4"/>
       <c r="C722" s="5"/>
     </row>
-    <row r="723">
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="4"/>
       <c r="C723" s="5"/>
     </row>
-    <row r="724">
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="4"/>
       <c r="C724" s="5"/>
     </row>
-    <row r="725">
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="4"/>
       <c r="C725" s="5"/>
     </row>
-    <row r="726">
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="4"/>
       <c r="C726" s="5"/>
     </row>
-    <row r="727">
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="4"/>
       <c r="C727" s="5"/>
     </row>
-    <row r="728">
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="4"/>
       <c r="C728" s="5"/>
     </row>
-    <row r="729">
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="4"/>
       <c r="C729" s="5"/>
     </row>
-    <row r="730">
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="4"/>
       <c r="C730" s="5"/>
     </row>
-    <row r="731">
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="4"/>
       <c r="C731" s="5"/>
     </row>
-    <row r="732">
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="4"/>
       <c r="C732" s="5"/>
     </row>
-    <row r="733">
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="4"/>
       <c r="C733" s="5"/>
     </row>
-    <row r="734">
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="4"/>
       <c r="C734" s="5"/>
     </row>
-    <row r="735">
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="4"/>
       <c r="C735" s="5"/>
     </row>
-    <row r="736">
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="4"/>
       <c r="C736" s="5"/>
     </row>
-    <row r="737">
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="4"/>
       <c r="C737" s="5"/>
     </row>
-    <row r="738">
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="4"/>
       <c r="C738" s="5"/>
     </row>
-    <row r="739">
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="4"/>
       <c r="C739" s="5"/>
     </row>
-    <row r="740">
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="4"/>
       <c r="C740" s="5"/>
     </row>
-    <row r="741">
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="4"/>
       <c r="C741" s="5"/>
     </row>
-    <row r="742">
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="4"/>
       <c r="C742" s="5"/>
     </row>
-    <row r="743">
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="4"/>
       <c r="C743" s="5"/>
     </row>
-    <row r="744">
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="4"/>
       <c r="C744" s="5"/>
     </row>
-    <row r="745">
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="4"/>
       <c r="C745" s="5"/>
     </row>
-    <row r="746">
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="4"/>
       <c r="C746" s="5"/>
     </row>
-    <row r="747">
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="4"/>
       <c r="C747" s="5"/>
     </row>
-    <row r="748">
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="4"/>
       <c r="C748" s="5"/>
     </row>
-    <row r="749">
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="4"/>
       <c r="C749" s="5"/>
     </row>
-    <row r="750">
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="4"/>
       <c r="C750" s="5"/>
     </row>
-    <row r="751">
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="4"/>
       <c r="C751" s="5"/>
     </row>
-    <row r="752">
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="4"/>
       <c r="C752" s="5"/>
     </row>
-    <row r="753">
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="4"/>
       <c r="C753" s="5"/>
     </row>
-    <row r="754">
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="4"/>
       <c r="C754" s="5"/>
     </row>
-    <row r="755">
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="4"/>
       <c r="C755" s="5"/>
     </row>
-    <row r="756">
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="4"/>
       <c r="C756" s="5"/>
     </row>
-    <row r="757">
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="4"/>
       <c r="C757" s="5"/>
     </row>
-    <row r="758">
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="4"/>
       <c r="C758" s="5"/>
     </row>
-    <row r="759">
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="4"/>
       <c r="C759" s="5"/>
     </row>
-    <row r="760">
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="4"/>
       <c r="C760" s="5"/>
     </row>
-    <row r="761">
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="4"/>
       <c r="C761" s="5"/>
     </row>
-    <row r="762">
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="4"/>
       <c r="C762" s="5"/>
     </row>
-    <row r="763">
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="4"/>
       <c r="C763" s="5"/>
     </row>
-    <row r="764">
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="4"/>
       <c r="C764" s="5"/>
     </row>
-    <row r="765">
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="4"/>
       <c r="C765" s="5"/>
     </row>
-    <row r="766">
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="4"/>
       <c r="C766" s="5"/>
     </row>
-    <row r="767">
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="4"/>
       <c r="C767" s="5"/>
     </row>
-    <row r="768">
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="4"/>
       <c r="C768" s="5"/>
     </row>
-    <row r="769">
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="4"/>
       <c r="C769" s="5"/>
     </row>
-    <row r="770">
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="4"/>
       <c r="C770" s="5"/>
     </row>
-    <row r="771">
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="4"/>
       <c r="C771" s="5"/>
     </row>
-    <row r="772">
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="4"/>
       <c r="C772" s="5"/>
     </row>
-    <row r="773">
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="4"/>
       <c r="C773" s="5"/>
     </row>
-    <row r="774">
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="4"/>
       <c r="C774" s="5"/>
     </row>
-    <row r="775">
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="4"/>
       <c r="C775" s="5"/>
     </row>
-    <row r="776">
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="4"/>
       <c r="C776" s="5"/>
     </row>
-    <row r="777">
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="4"/>
       <c r="C777" s="5"/>
     </row>
-    <row r="778">
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="4"/>
       <c r="C778" s="5"/>
     </row>
-    <row r="779">
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="4"/>
       <c r="C779" s="5"/>
     </row>
-    <row r="780">
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="4"/>
       <c r="C780" s="5"/>
     </row>
-    <row r="781">
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="4"/>
       <c r="C781" s="5"/>
     </row>
-    <row r="782">
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="4"/>
       <c r="C782" s="5"/>
     </row>
-    <row r="783">
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="4"/>
       <c r="C783" s="5"/>
     </row>
-    <row r="784">
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="4"/>
       <c r="C784" s="5"/>
     </row>
-    <row r="785">
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="4"/>
       <c r="C785" s="5"/>
     </row>
-    <row r="786">
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="4"/>
       <c r="C786" s="5"/>
     </row>
-    <row r="787">
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="4"/>
       <c r="C787" s="5"/>
     </row>
-    <row r="788">
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="4"/>
       <c r="C788" s="5"/>
     </row>
-    <row r="789">
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="4"/>
       <c r="C789" s="5"/>
     </row>
-    <row r="790">
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="4"/>
       <c r="C790" s="5"/>
     </row>
-    <row r="791">
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="4"/>
       <c r="C791" s="5"/>
     </row>
-    <row r="792">
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="4"/>
       <c r="C792" s="5"/>
     </row>
-    <row r="793">
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="4"/>
       <c r="C793" s="5"/>
     </row>
-    <row r="794">
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="4"/>
       <c r="C794" s="5"/>
     </row>
-    <row r="795">
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="4"/>
       <c r="C795" s="5"/>
     </row>
-    <row r="796">
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="4"/>
       <c r="C796" s="5"/>
     </row>
-    <row r="797">
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="4"/>
       <c r="C797" s="5"/>
     </row>
-    <row r="798">
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="4"/>
       <c r="C798" s="5"/>
     </row>
-    <row r="799">
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="4"/>
       <c r="C799" s="5"/>
     </row>
-    <row r="800">
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="4"/>
       <c r="C800" s="5"/>
     </row>
-    <row r="801">
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="4"/>
       <c r="C801" s="5"/>
     </row>
-    <row r="802">
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="4"/>
       <c r="C802" s="5"/>
     </row>
-    <row r="803">
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="4"/>
       <c r="C803" s="5"/>
     </row>
-    <row r="804">
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="4"/>
       <c r="C804" s="5"/>
     </row>
-    <row r="805">
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="4"/>
       <c r="C805" s="5"/>
     </row>
-    <row r="806">
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="4"/>
       <c r="C806" s="5"/>
     </row>
-    <row r="807">
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="4"/>
       <c r="C807" s="5"/>
     </row>
-    <row r="808">
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="4"/>
       <c r="C808" s="5"/>
     </row>
-    <row r="809">
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="4"/>
       <c r="C809" s="5"/>
     </row>
-    <row r="810">
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="4"/>
       <c r="C810" s="5"/>
     </row>
-    <row r="811">
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="4"/>
       <c r="C811" s="5"/>
     </row>
-    <row r="812">
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="4"/>
       <c r="C812" s="5"/>
     </row>
-    <row r="813">
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="4"/>
       <c r="C813" s="5"/>
     </row>
-    <row r="814">
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="4"/>
       <c r="C814" s="5"/>
     </row>
-    <row r="815">
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="4"/>
       <c r="C815" s="5"/>
     </row>
-    <row r="816">
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="4"/>
       <c r="C816" s="5"/>
     </row>
-    <row r="817">
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="4"/>
       <c r="C817" s="5"/>
     </row>
-    <row r="818">
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="4"/>
       <c r="C818" s="5"/>
     </row>
-    <row r="819">
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="4"/>
       <c r="C819" s="5"/>
     </row>
-    <row r="820">
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="4"/>
       <c r="C820" s="5"/>
     </row>
-    <row r="821">
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="4"/>
       <c r="C821" s="5"/>
     </row>
-    <row r="822">
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="4"/>
       <c r="C822" s="5"/>
     </row>
-    <row r="823">
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="4"/>
       <c r="C823" s="5"/>
     </row>
-    <row r="824">
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="4"/>
       <c r="C824" s="5"/>
     </row>
-    <row r="825">
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="4"/>
       <c r="C825" s="5"/>
     </row>
-    <row r="826">
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="4"/>
       <c r="C826" s="5"/>
     </row>
-    <row r="827">
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="4"/>
       <c r="C827" s="5"/>
     </row>
-    <row r="828">
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="4"/>
       <c r="C828" s="5"/>
     </row>
-    <row r="829">
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="4"/>
       <c r="C829" s="5"/>
     </row>
-    <row r="830">
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="4"/>
       <c r="C830" s="5"/>
     </row>
-    <row r="831">
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="4"/>
       <c r="C831" s="5"/>
     </row>
-    <row r="832">
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="4"/>
       <c r="C832" s="5"/>
     </row>
-    <row r="833">
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="4"/>
       <c r="C833" s="5"/>
     </row>
-    <row r="834">
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="4"/>
       <c r="C834" s="5"/>
     </row>
-    <row r="835">
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="4"/>
       <c r="C835" s="5"/>
     </row>
-    <row r="836">
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="4"/>
       <c r="C836" s="5"/>
     </row>
-    <row r="837">
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="4"/>
       <c r="C837" s="5"/>
     </row>
-    <row r="838">
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="4"/>
       <c r="C838" s="5"/>
     </row>
-    <row r="839">
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="4"/>
       <c r="C839" s="5"/>
     </row>
-    <row r="840">
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="4"/>
       <c r="C840" s="5"/>
     </row>
-    <row r="841">
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="4"/>
       <c r="C841" s="5"/>
     </row>
-    <row r="842">
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="4"/>
       <c r="C842" s="5"/>
     </row>
-    <row r="843">
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="4"/>
       <c r="C843" s="5"/>
     </row>
-    <row r="844">
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="4"/>
       <c r="C844" s="5"/>
     </row>
-    <row r="845">
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="4"/>
       <c r="C845" s="5"/>
     </row>
-    <row r="846">
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="4"/>
       <c r="C846" s="5"/>
     </row>
-    <row r="847">
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="4"/>
       <c r="C847" s="5"/>
     </row>
-    <row r="848">
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="4"/>
       <c r="C848" s="5"/>
     </row>
-    <row r="849">
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="4"/>
       <c r="C849" s="5"/>
     </row>
-    <row r="850">
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="4"/>
       <c r="C850" s="5"/>
     </row>
-    <row r="851">
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="4"/>
       <c r="C851" s="5"/>
     </row>
-    <row r="852">
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="4"/>
       <c r="C852" s="5"/>
     </row>
-    <row r="853">
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="4"/>
       <c r="C853" s="5"/>
     </row>
-    <row r="854">
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="4"/>
       <c r="C854" s="5"/>
     </row>
-    <row r="855">
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="4"/>
       <c r="C855" s="5"/>
     </row>
-    <row r="856">
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="4"/>
       <c r="C856" s="5"/>
     </row>
-    <row r="857">
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="4"/>
       <c r="C857" s="5"/>
     </row>
-    <row r="858">
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="4"/>
       <c r="C858" s="5"/>
     </row>
-    <row r="859">
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="4"/>
       <c r="C859" s="5"/>
     </row>
-    <row r="860">
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="4"/>
       <c r="C860" s="5"/>
     </row>
-    <row r="861">
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="4"/>
       <c r="C861" s="5"/>
     </row>
-    <row r="862">
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="4"/>
       <c r="C862" s="5"/>
     </row>
-    <row r="863">
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="4"/>
       <c r="C863" s="5"/>
     </row>
-    <row r="864">
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="4"/>
       <c r="C864" s="5"/>
     </row>
-    <row r="865">
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="4"/>
       <c r="C865" s="5"/>
     </row>
-    <row r="866">
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="4"/>
       <c r="C866" s="5"/>
     </row>
-    <row r="867">
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="4"/>
       <c r="C867" s="5"/>
     </row>
-    <row r="868">
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="4"/>
       <c r="C868" s="5"/>
     </row>
-    <row r="869">
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="4"/>
       <c r="C869" s="5"/>
     </row>
-    <row r="870">
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="4"/>
       <c r="C870" s="5"/>
     </row>
-    <row r="871">
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="4"/>
       <c r="C871" s="5"/>
     </row>
-    <row r="872">
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="4"/>
       <c r="C872" s="5"/>
     </row>
-    <row r="873">
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="4"/>
       <c r="C873" s="5"/>
     </row>
-    <row r="874">
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="4"/>
       <c r="C874" s="5"/>
     </row>
-    <row r="875">
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="4"/>
       <c r="C875" s="5"/>
     </row>
-    <row r="876">
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="4"/>
       <c r="C876" s="5"/>
     </row>
-    <row r="877">
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="4"/>
       <c r="C877" s="5"/>
     </row>
-    <row r="878">
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="4"/>
       <c r="C878" s="5"/>
     </row>
-    <row r="879">
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="4"/>
       <c r="C879" s="5"/>
     </row>
-    <row r="880">
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="4"/>
       <c r="C880" s="5"/>
     </row>
-    <row r="881">
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="4"/>
       <c r="C881" s="5"/>
     </row>
-    <row r="882">
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="4"/>
       <c r="C882" s="5"/>
     </row>
-    <row r="883">
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="4"/>
       <c r="C883" s="5"/>
     </row>
-    <row r="884">
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="4"/>
       <c r="C884" s="5"/>
     </row>
-    <row r="885">
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="4"/>
       <c r="C885" s="5"/>
     </row>
-    <row r="886">
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="4"/>
       <c r="C886" s="5"/>
     </row>
-    <row r="887">
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="4"/>
       <c r="C887" s="5"/>
     </row>
-    <row r="888">
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="4"/>
       <c r="C888" s="5"/>
     </row>
-    <row r="889">
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="4"/>
       <c r="C889" s="5"/>
     </row>
-    <row r="890">
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="4"/>
       <c r="C890" s="5"/>
     </row>
-    <row r="891">
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="4"/>
       <c r="C891" s="5"/>
     </row>
-    <row r="892">
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="4"/>
       <c r="C892" s="5"/>
     </row>
-    <row r="893">
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="4"/>
       <c r="C893" s="5"/>
     </row>
-    <row r="894">
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="4"/>
       <c r="C894" s="5"/>
     </row>
-    <row r="895">
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="4"/>
       <c r="C895" s="5"/>
     </row>
-    <row r="896">
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="4"/>
       <c r="C896" s="5"/>
     </row>
-    <row r="897">
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="4"/>
       <c r="C897" s="5"/>
     </row>
-    <row r="898">
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="4"/>
       <c r="C898" s="5"/>
     </row>
-    <row r="899">
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="4"/>
       <c r="C899" s="5"/>
     </row>
-    <row r="900">
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="4"/>
       <c r="C900" s="5"/>
     </row>
-    <row r="901">
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="4"/>
       <c r="C901" s="5"/>
     </row>
-    <row r="902">
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="4"/>
       <c r="C902" s="5"/>
     </row>
-    <row r="903">
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="4"/>
       <c r="C903" s="5"/>
     </row>
-    <row r="904">
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="4"/>
       <c r="C904" s="5"/>
     </row>
-    <row r="905">
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="4"/>
       <c r="C905" s="5"/>
     </row>
-    <row r="906">
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="4"/>
       <c r="C906" s="5"/>
     </row>
-    <row r="907">
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="4"/>
       <c r="C907" s="5"/>
     </row>
-    <row r="908">
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="4"/>
       <c r="C908" s="5"/>
     </row>
-    <row r="909">
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="4"/>
       <c r="C909" s="5"/>
     </row>
-    <row r="910">
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="4"/>
       <c r="C910" s="5"/>
     </row>
-    <row r="911">
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="4"/>
       <c r="C911" s="5"/>
     </row>
-    <row r="912">
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="4"/>
       <c r="C912" s="5"/>
     </row>
-    <row r="913">
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="4"/>
       <c r="C913" s="5"/>
     </row>
-    <row r="914">
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="4"/>
       <c r="C914" s="5"/>
     </row>
-    <row r="915">
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="4"/>
       <c r="C915" s="5"/>
     </row>
-    <row r="916">
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="4"/>
       <c r="C916" s="5"/>
     </row>
-    <row r="917">
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="4"/>
       <c r="C917" s="5"/>
     </row>
-    <row r="918">
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="4"/>
       <c r="C918" s="5"/>
     </row>
-    <row r="919">
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="4"/>
       <c r="C919" s="5"/>
     </row>
-    <row r="920">
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="4"/>
       <c r="C920" s="5"/>
     </row>
-    <row r="921">
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="4"/>
       <c r="C921" s="5"/>
     </row>
-    <row r="922">
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="4"/>
       <c r="C922" s="5"/>
     </row>
-    <row r="923">
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="4"/>
       <c r="C923" s="5"/>
     </row>
-    <row r="924">
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="4"/>
       <c r="C924" s="5"/>
     </row>
-    <row r="925">
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="4"/>
       <c r="C925" s="5"/>
     </row>
-    <row r="926">
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="4"/>
       <c r="C926" s="5"/>
     </row>
-    <row r="927">
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="4"/>
       <c r="C927" s="5"/>
     </row>
-    <row r="928">
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="4"/>
       <c r="C928" s="5"/>
     </row>
-    <row r="929">
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="4"/>
       <c r="C929" s="5"/>
     </row>
-    <row r="930">
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="4"/>
       <c r="C930" s="5"/>
     </row>
-    <row r="931">
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="4"/>
       <c r="C931" s="5"/>
     </row>
-    <row r="932">
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="4"/>
       <c r="C932" s="5"/>
     </row>
-    <row r="933">
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="4"/>
       <c r="C933" s="5"/>
     </row>
-    <row r="934">
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="4"/>
       <c r="C934" s="5"/>
     </row>
-    <row r="935">
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="4"/>
       <c r="C935" s="5"/>
     </row>
-    <row r="936">
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="4"/>
       <c r="C936" s="5"/>
     </row>
-    <row r="937">
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="4"/>
       <c r="C937" s="5"/>
     </row>
-    <row r="938">
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="4"/>
       <c r="C938" s="5"/>
     </row>
-    <row r="939">
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="4"/>
       <c r="C939" s="5"/>
     </row>
-    <row r="940">
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="4"/>
       <c r="C940" s="5"/>
     </row>
-    <row r="941">
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="4"/>
       <c r="C941" s="5"/>
     </row>
-    <row r="942">
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="4"/>
       <c r="C942" s="5"/>
     </row>
-    <row r="943">
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="4"/>
       <c r="C943" s="5"/>
     </row>
-    <row r="944">
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="4"/>
       <c r="C944" s="5"/>
     </row>
-    <row r="945">
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="4"/>
       <c r="C945" s="5"/>
     </row>
-    <row r="946">
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="4"/>
       <c r="C946" s="5"/>
     </row>
-    <row r="947">
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="4"/>
       <c r="C947" s="5"/>
     </row>
-    <row r="948">
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="4"/>
       <c r="C948" s="5"/>
     </row>
-    <row r="949">
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="4"/>
       <c r="C949" s="5"/>
     </row>
-    <row r="950">
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="4"/>
       <c r="C950" s="5"/>
     </row>
-    <row r="951">
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="4"/>
       <c r="C951" s="5"/>
     </row>
-    <row r="952">
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="4"/>
       <c r="C952" s="5"/>
     </row>
-    <row r="953">
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="4"/>
       <c r="C953" s="5"/>
     </row>
-    <row r="954">
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="4"/>
       <c r="C954" s="5"/>
     </row>
-    <row r="955">
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="4"/>
       <c r="C955" s="5"/>
     </row>
-    <row r="956">
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="4"/>
       <c r="C956" s="5"/>
     </row>
-    <row r="957">
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="4"/>
       <c r="C957" s="5"/>
     </row>
-    <row r="958">
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="4"/>
       <c r="C958" s="5"/>
     </row>
-    <row r="959">
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="4"/>
       <c r="C959" s="5"/>
     </row>
-    <row r="960">
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="4"/>
       <c r="C960" s="5"/>
     </row>
-    <row r="961">
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="4"/>
       <c r="C961" s="5"/>
     </row>
-    <row r="962">
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="4"/>
       <c r="C962" s="5"/>
     </row>
-    <row r="963">
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="4"/>
       <c r="C963" s="5"/>
     </row>
-    <row r="964">
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="4"/>
       <c r="C964" s="5"/>
     </row>
-    <row r="965">
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="4"/>
       <c r="C965" s="5"/>
     </row>
-    <row r="966">
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="4"/>
       <c r="C966" s="5"/>
     </row>
-    <row r="967">
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="4"/>
       <c r="C967" s="5"/>
     </row>
-    <row r="968">
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="4"/>
       <c r="C968" s="5"/>
     </row>
-    <row r="969">
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="4"/>
       <c r="C969" s="5"/>
     </row>
-    <row r="970">
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="4"/>
       <c r="C970" s="5"/>
     </row>
-    <row r="971">
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="4"/>
       <c r="C971" s="5"/>
     </row>
-    <row r="972">
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="4"/>
       <c r="C972" s="5"/>
     </row>
-    <row r="973">
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="4"/>
       <c r="C973" s="5"/>
     </row>
-    <row r="974">
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="4"/>
       <c r="C974" s="5"/>
     </row>
-    <row r="975">
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="4"/>
       <c r="C975" s="5"/>
     </row>
-    <row r="976">
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="4"/>
       <c r="C976" s="5"/>
     </row>
-    <row r="977">
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="4"/>
       <c r="C977" s="5"/>
     </row>
-    <row r="978">
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="4"/>
       <c r="C978" s="5"/>
     </row>
-    <row r="979">
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="4"/>
       <c r="C979" s="5"/>
     </row>
-    <row r="980">
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="4"/>
       <c r="C980" s="5"/>
     </row>
-    <row r="981">
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="4"/>
       <c r="C981" s="5"/>
     </row>
-    <row r="982">
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="4"/>
       <c r="C982" s="5"/>
     </row>
-    <row r="983">
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="4"/>
       <c r="C983" s="5"/>
     </row>
-    <row r="984">
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="4"/>
       <c r="C984" s="5"/>
     </row>
-    <row r="985">
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="4"/>
       <c r="C985" s="5"/>
     </row>
-    <row r="986">
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="4"/>
       <c r="C986" s="5"/>
     </row>
-    <row r="987">
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="4"/>
       <c r="C987" s="5"/>
     </row>
-    <row r="988">
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="4"/>
       <c r="C988" s="5"/>
     </row>
-    <row r="989">
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="4"/>
       <c r="C989" s="5"/>
     </row>
-    <row r="990">
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="4"/>
       <c r="C990" s="5"/>
     </row>
-    <row r="991">
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="4"/>
       <c r="C991" s="5"/>
     </row>
-    <row r="992">
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="4"/>
       <c r="C992" s="5"/>
     </row>
-    <row r="993">
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="4"/>
       <c r="C993" s="5"/>
     </row>
-    <row r="994">
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="4"/>
       <c r="C994" s="5"/>
     </row>
-    <row r="995">
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="4"/>
       <c r="C995" s="5"/>
     </row>
-    <row r="996">
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="4"/>
       <c r="C996" s="5"/>
     </row>
-    <row r="997">
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="4"/>
       <c r="C997" s="5"/>
     </row>
-    <row r="998">
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="4"/>
       <c r="C998" s="5"/>
     </row>
-    <row r="999">
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="4"/>
       <c r="C999" s="5"/>
     </row>
-    <row r="1000">
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="4"/>
       <c r="C1000" s="5"/>
     </row>
-    <row r="1001">
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="4"/>
       <c r="C1001" s="5"/>
     </row>
-    <row r="1002">
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="4"/>
       <c r="C1002" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>